--- a/ClusterData/cluster_data.xlsx
+++ b/ClusterData/cluster_data.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Issuer_id</t>
   </si>
@@ -238,6 +239,21 @@
   </si>
   <si>
     <t>6_12</t>
+  </si>
+  <si>
+    <t>Issuer</t>
+  </si>
+  <si>
+    <t>QC2</t>
+  </si>
+  <si>
+    <t>QC4</t>
+  </si>
+  <si>
+    <t>QC4_Dist</t>
+  </si>
+  <si>
+    <t>QC2_Dist2</t>
   </si>
 </sst>
 </file>
@@ -863,6 +879,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E174" totalsRowShown="0">
+  <autoFilter ref="A1:E174"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Issuer"/>
+    <tableColumn id="2" name="QC4"/>
+    <tableColumn id="3" name="QC4_Dist"/>
+    <tableColumn id="4" name="QC2"/>
+    <tableColumn id="5" name="QC2_Dist2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1128,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK15" workbookViewId="0">
+    <sheetView topLeftCell="A153" workbookViewId="0">
       <selection activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
@@ -39597,4 +39627,2984 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>355212</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>759.65498000000002</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>595.48032000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>355218</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>444.45238000000001</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>464.32315999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>358857</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>340.29275000000001</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>392.26710000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>358204</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>581.14306999999997</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>671.62526000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>357338</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>677.92417</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>720.91776000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>357086</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1142.0341100000001</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1115.63301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>330291</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>541.05508999999995</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>698.93885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>350423</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>951.12940000000003</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>924.89305000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>350424</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>517.77705000000003</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>527.98740999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>350425</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>601.64580999999998</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>573.35359000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>346409</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>497.24999000000003</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>525.40302999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>330692</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>390.59602000000001</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>546.72550999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>355453</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>484.41759000000002</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>685.55556999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>355156</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>412.57026999999999</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>478.57915000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>349570</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1184.7841100000001</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1601.8962899999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>342966</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>706.29593</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1157.2059899999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>349576</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>498.93346000000003</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>634.00265999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>352036</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>767.73724000000004</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>771.12000999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>357771</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>892.55802000000006</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>987.66880000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>356964</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>930.10118</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>991.20142999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>358126</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>728.91391999999996</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>996.16624999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>358128</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>755.44132999999999</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>719.30457000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>355205</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>533.81484999999998</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>610.74383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>359336</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>575.07514000000003</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>775.07137999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>346330</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>940.42794000000004</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1109.7298800000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>358607</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>473.31869</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>432.45442000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>350433</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>854.06970999999999</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1206.7921100000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>358603</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>281.62078000000002</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>236.34737999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>358214</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>489.96265</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>581.61843999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>358608</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>412.97710999999998</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>378.05498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>331510</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>630.22861999999998</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>672.26008999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>350439</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>588.96196999999995</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>619.11578999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>355619</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>567.33907999999997</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>572.14855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>355492</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>676.71587999999997</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>623.93493999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>355050</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>603.53688</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>527.19637999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>341298</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>484.13123000000002</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>466.56421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>357073</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>723.09997999999996</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>636.14151000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>356484</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1045.3172999999999</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>998.04615999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>347687</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>939.21347000000003</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1348.8806099999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>355113</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>832.1191</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1058.73352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>355446</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1048.70136</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1138.83564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>355117</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>640.21384999999998</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>533.38489000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>356356</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>723.14805999999999</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>483.20287999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>348566</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>404.17419999999998</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>582.56412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>333386</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>462.23669999999998</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>819.56597999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>355567</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>430.06288999999998</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>519.47469999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>351929</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>514.81089999999995</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>606.19141999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>358119</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>810.67886999999996</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>916.80132000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>358847</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>399.59706</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>348.24245000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>351280</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>535.46083999999996</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>449.60601000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>346346</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>669.46261000000004</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>748.52436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>356522</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>576.48434999999995</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>668.36758999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>358194</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>662.18552999999997</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>700.53894000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>358617</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>771.67120999999997</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>729.92882999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>356565</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>830.79623000000004</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>707.28611000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>341943</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>404.12103999999999</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>520.83794999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>358594</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>537.68640000000005</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>480.62072000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>357724</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>391.04584</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>342.93628000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>355283</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>500.26956000000001</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>637.42561999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>358873</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>420.19454000000002</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>370.59634999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>356314</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>1032.45526</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1156.9201700000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>340051</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>864.97915999999998</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1237.3888400000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>345221</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>366.83197000000001</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>718.31385999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>353424</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>812.09019000000001</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>634.22331999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>356259</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>616.66926000000001</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>686.61595999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>355144</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>436.62484000000001</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>657.80202999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>355145</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>530.64557000000002</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>637.23650999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>357751</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>419.30892</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>494.73390999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>330001</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>440.07274000000001</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>827.40651000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>357802</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>306.07341000000002</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>301.89717999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>358187</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>453.99090999999999</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>464.19499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>351274</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>929.84875999999997</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>1297.6636599999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>345331</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>290.54908</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>695.56886999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>356214</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>914.05591000000004</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1000.6051200000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>357360</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1467.4960599999999</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1459.17893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>349850</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>635.87130000000002</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>1123.91617</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>346105</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>760.56775000000005</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1148.9643100000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>347593</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>304.07387999999997</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>454.41037</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>355677</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>879.4316</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1133.7758699999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>354084</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>550.63301000000001</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>589.23530000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>355675</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>649.20759999999996</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>968.09621000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>346109</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>385.24169999999998</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>630.03053</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>345536</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>536.73031000000003</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>670.21473000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>349481</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>698.92196000000001</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>759.92569000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>345560</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>359.49664999999999</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>692.61758999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>348520</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>446.1628</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>605.64256999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>344778</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>785.91803000000004</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>1204.28412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>351997</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>546.41066000000001</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>893.42988000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>353486</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>609.99144000000001</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>675.95824000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>351995</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>1250.01674</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>1364.6727800000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>355497</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>774.97005999999999</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>967.79740000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>357078</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>664.36958000000004</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>985.05404999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>357721</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>651.15665999999999</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>652.47531000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>357689</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>718.81359999999995</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>970.57669999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>358579</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>560.65463999999997</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>523.50378999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>349538</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>827.41198999999995</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>966.59501999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>337778</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>539.36595999999997</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>947.57096999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>333163</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>363.03593999999998</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>568.99866999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>358570</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>429.19324999999998</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>435.63758000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>353164</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>301.97377</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>362.49903999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>356304</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>836.87582999999995</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>859.82401000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>354098</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>509.90888999999999</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>969.54264000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>351919</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>496.51934</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>505.62302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>353408</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>497.54369000000003</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>616.43466000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>331220</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>437.32709</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>477.43310000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>333733</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>411.52336000000003</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>464.51164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>347674</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>563.44920000000002</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>717.71128999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>352070</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>704.43613000000005</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>658.11833999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>347489</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>1128.0131899999999</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>1470.75335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>355080</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>889.48230000000001</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>824.80335000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>358948</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>530.11563999999998</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>496.46577000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>352992</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>600.75743</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>568.61753999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>355451</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>465.69461999999999</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>395.7962</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>355546</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>508.8818</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>467.80264</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>355134</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>885.95159999999998</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>885.59829999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>353176</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>635.09491000000003</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>886.10473999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>345238</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>672.55381999999997</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>660.87982999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>357735</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>745.73495000000003</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>834.63138000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>357068</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>558.10931000000005</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>480.78726</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>357736</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>669.57326999999998</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>701.79768999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>355710</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>706.87378000000001</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>671.61455000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>358892</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>344.72037</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>256.55545000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>352079</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>617.35766000000001</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>645.59416999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>353070</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>512.40342999999996</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>582.97398999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>355417</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>774.50171</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>931.06262000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>358623</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>839.87504999999999</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>927.80669999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>354125</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>618.57297000000005</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>525.05998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>355639</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>552.33072000000004</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>611.44681000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>354043</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>737.14277000000004</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>1003.51919</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>358936</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>694.08551999999997</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>621.74827000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>341980</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>614.94383000000005</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>684.29195000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>356181</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>471.50783000000001</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>876.62455999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>358863</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>355.67728</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>390.43999000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>356959</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>465.70533999999998</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>456.43043</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>357700</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>622.53107999999997</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>713.62531999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>357701</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>767.77458999999999</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>725.48289999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>352950</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>956.90475000000004</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1062.4406799999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>355073</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>758.06611999999996</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>673.98108999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>358228</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>544.81428000000005</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>529.73751000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>357783</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>865.30889999999999</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>846.97366999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>353069</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>715.59353999999996</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>785.08223999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>355642</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1059.3303699999999</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>988.35589000000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>350407</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>544.07466999999997</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>644.02508999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>355438</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>700.81334000000004</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>661.82640000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>357113</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>701.45100000000002</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>933.62786000000006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>350401</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>473.11189000000002</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>862.53605000000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>355530</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>553.46915999999999</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>680.86087999999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>356518</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>439.40769</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>833.28309999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>355532</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>498.71996000000001</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>770.58843000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>356352</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>430.82026000000002</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>513.02828999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>356512</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>850.68655999999999</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>810.55922999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>355538</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>1010.82703</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1323.9410800000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>353508</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>914.53420000000006</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>933.13139000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>355224</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>650.02455999999995</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>645.06116999999995</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>358944</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>225.23685</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>232.55708000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>355220</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>617.82737999999995</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>708.36077999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>330198</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>773.91110000000003</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>781.77795000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>357088</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>585.99793</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>545.58929999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>356261</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>446.35282999999998</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>347.03613000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>356262</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>1146.33368</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>1372.6364900000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>352946</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>761.14211999999998</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>750.70835</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>355588</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>622.68736000000001</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>648.53475000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>345275</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>608.86199999999997</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>934.46047999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>351239</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>508.30887000000001</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>519.32822999999996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>343918</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>295.79865999999998</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>680.87449000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>356225</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>733.67729999999995</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>761.79264999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>355428</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>607.61985000000004</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>534.03189999999995</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>357792</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>866.48248999999998</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>1068.1781699999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>354205</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>632.97842000000003</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>700.24253999999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>358117</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>623.39230999999995</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>665.28060000000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>358600</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>541.86856999999998</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>613.53724</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>353194</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>554.10373000000004</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>597.50151000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>346381</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>648.29852000000005</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>630.03805999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>